--- a/public/template_mahasiswa.xlsx
+++ b/public/template_mahasiswa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\PBL4_Sem4\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE6D5E52-3321-405C-9A5B-674EC6B94483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF809CA-F2A8-4533-A5D0-7657545903DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0EAF9244-301C-410D-B4A0-AE62B17C945B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="411">
   <si>
     <t>username</t>
   </si>
@@ -64,6 +64,1209 @@
   </si>
   <si>
     <t>Jl. Candi Pangggung</t>
+  </si>
+  <si>
+    <t>19739805</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>T. Radit Anggraini, M.TI.</t>
+  </si>
+  <si>
+    <t>Gg. Pasteur No. 32, Sibolga, Banten 84061</t>
+  </si>
+  <si>
+    <t>+62-91-233-1297</t>
+  </si>
+  <si>
+    <t>19004302</t>
+  </si>
+  <si>
+    <t>Sutan Raihan Januar</t>
+  </si>
+  <si>
+    <t>Jalan Cikutra Timur No. 595, Bukittinggi, Maluku 41094</t>
+  </si>
+  <si>
+    <t>0840124490</t>
+  </si>
+  <si>
+    <t>19265786</t>
+  </si>
+  <si>
+    <t>drg. Gadang Kuswoyo, S.Farm</t>
+  </si>
+  <si>
+    <t>Gg. Rumah Sakit No. 59, Medan, JI 18999</t>
+  </si>
+  <si>
+    <t>+62-0786-817-5737</t>
+  </si>
+  <si>
+    <t>19586397</t>
+  </si>
+  <si>
+    <t>Raditya Hardiansyah</t>
+  </si>
+  <si>
+    <t>Jalan Tubagus Ismail No. 54, Ambon, Kalimantan Barat 32892</t>
+  </si>
+  <si>
+    <t>+62 (56) 372 4764</t>
+  </si>
+  <si>
+    <t>19931729</t>
+  </si>
+  <si>
+    <t>Elisa Siregar</t>
+  </si>
+  <si>
+    <t>Gang Cikutra Barat No. 3, Banda Aceh, Maluku Utara 78837</t>
+  </si>
+  <si>
+    <t>+62 (137) 517 3392</t>
+  </si>
+  <si>
+    <t>19436767</t>
+  </si>
+  <si>
+    <t>drg. Uchita Yuliarti, S.Pd</t>
+  </si>
+  <si>
+    <t>Jalan Ahmad Yani No. 335, Binjai, Kalimantan Utara 33206</t>
+  </si>
+  <si>
+    <t>(0112) 138-1764</t>
+  </si>
+  <si>
+    <t>19804328</t>
+  </si>
+  <si>
+    <t>T. Bala Fujiati, M.Kom.</t>
+  </si>
+  <si>
+    <t>Jalan Soekarno Hatta No. 707, Tidore Kepulauan, JA 40921</t>
+  </si>
+  <si>
+    <t>(0815) 912-5556</t>
+  </si>
+  <si>
+    <t>19516138</t>
+  </si>
+  <si>
+    <t>Edison Firgantoro</t>
+  </si>
+  <si>
+    <t>Jalan Pasir Koja No. 16, Singkawang, Papua Barat 91620</t>
+  </si>
+  <si>
+    <t>+62-0737-941-8292</t>
+  </si>
+  <si>
+    <t>19789988</t>
+  </si>
+  <si>
+    <t>Lalita Utami</t>
+  </si>
+  <si>
+    <t>Gang Moch. Toha No. 99, Manado, Sulawesi Utara 79968</t>
+  </si>
+  <si>
+    <t>+62 (49) 877 7331</t>
+  </si>
+  <si>
+    <t>19492011</t>
+  </si>
+  <si>
+    <t>Tgk. Indah Permata</t>
+  </si>
+  <si>
+    <t>Gang Soekarno Hatta No. 1, Samarinda, Bali 72995</t>
+  </si>
+  <si>
+    <t>+62-646-784-0051</t>
+  </si>
+  <si>
+    <t>19697493</t>
+  </si>
+  <si>
+    <t>Daru Hidayat</t>
+  </si>
+  <si>
+    <t>Gang Surapati No. 55, Medan, JA 12295</t>
+  </si>
+  <si>
+    <t>+62-76-511-8764</t>
+  </si>
+  <si>
+    <t>19875381</t>
+  </si>
+  <si>
+    <t>Ir. Carub Waluyo, M.Pd</t>
+  </si>
+  <si>
+    <t>Jalan Ciumbuleuit No. 84, Bontang, AC 58237</t>
+  </si>
+  <si>
+    <t>+62 (015) 518-0367</t>
+  </si>
+  <si>
+    <t>19004665</t>
+  </si>
+  <si>
+    <t>Ratih Nurdiyanti, S.Kom</t>
+  </si>
+  <si>
+    <t>Jalan Ronggowarsito No. 043, Malang, PB 21616</t>
+  </si>
+  <si>
+    <t>+62 (73) 246 2816</t>
+  </si>
+  <si>
+    <t>19164625</t>
+  </si>
+  <si>
+    <t>Taufan Mahendra</t>
+  </si>
+  <si>
+    <t>Jl. Kebonjati No. 1, Tual, BB 77804</t>
+  </si>
+  <si>
+    <t>+62 (029) 912-8948</t>
+  </si>
+  <si>
+    <t>19428428</t>
+  </si>
+  <si>
+    <t>Paramita Pratama</t>
+  </si>
+  <si>
+    <t>Jalan Waringin No. 576, Langsa, DKI Jakarta 20452</t>
+  </si>
+  <si>
+    <t>0886231052</t>
+  </si>
+  <si>
+    <t>19171731</t>
+  </si>
+  <si>
+    <t>Bambang Farida</t>
+  </si>
+  <si>
+    <t>Jl. Peta No. 24, Tebingtinggi, Nusa Tenggara Timur 17265</t>
+  </si>
+  <si>
+    <t>(0440) 591-4061</t>
+  </si>
+  <si>
+    <t>19488747</t>
+  </si>
+  <si>
+    <t>Sutan Bajragin Maheswara, M.M.</t>
+  </si>
+  <si>
+    <t>Jl. Tubagus Ismail No. 1, Tanjungpinang, Sumatera Utara 97280</t>
+  </si>
+  <si>
+    <t>+62-920-497-5056</t>
+  </si>
+  <si>
+    <t>19784353</t>
+  </si>
+  <si>
+    <t>Puti Yuni Prayoga</t>
+  </si>
+  <si>
+    <t>Gang M.H Thamrin No. 938, Metro, Sumatera Selatan 75712</t>
+  </si>
+  <si>
+    <t>+62 (0275) 222-2849</t>
+  </si>
+  <si>
+    <t>19270476</t>
+  </si>
+  <si>
+    <t>Tgk. Aisyah Kuswandari, M.Farm</t>
+  </si>
+  <si>
+    <t>Gang Bangka Raya No. 7, Bau-Bau, SG 43306</t>
+  </si>
+  <si>
+    <t>+62-654-998-8968</t>
+  </si>
+  <si>
+    <t>19777988</t>
+  </si>
+  <si>
+    <t>Galar Jailani, S.IP</t>
+  </si>
+  <si>
+    <t>Gg. Tubagus Ismail No. 435, Palangkaraya, Sulawesi Barat 83057</t>
+  </si>
+  <si>
+    <t>0853513852</t>
+  </si>
+  <si>
+    <t>19071034</t>
+  </si>
+  <si>
+    <t>Ir. Zelaya Mandasari, S.Gz</t>
+  </si>
+  <si>
+    <t>Gang Pasteur No. 305, Yogyakarta, Jawa Barat 16857</t>
+  </si>
+  <si>
+    <t>+62-33-803-3417</t>
+  </si>
+  <si>
+    <t>19759308</t>
+  </si>
+  <si>
+    <t>Hj. Icha Salahudin</t>
+  </si>
+  <si>
+    <t>Gg. Erlangga No. 2, Salatiga, NB 03725</t>
+  </si>
+  <si>
+    <t>+62 (18) 413-4072</t>
+  </si>
+  <si>
+    <t>19165147</t>
+  </si>
+  <si>
+    <t>Lalita Maheswara, S.Pt</t>
+  </si>
+  <si>
+    <t>Jl. Medokan Ayu No. 0, Banda Aceh, KU 37555</t>
+  </si>
+  <si>
+    <t>+62-41-540-9928</t>
+  </si>
+  <si>
+    <t>19292115</t>
+  </si>
+  <si>
+    <t>Yuliana Januar</t>
+  </si>
+  <si>
+    <t>Gg. Indragiri No. 834, Singkawang, Kepulauan Bangka Belitung 54775</t>
+  </si>
+  <si>
+    <t>+62 (74) 585-9705</t>
+  </si>
+  <si>
+    <t>19762713</t>
+  </si>
+  <si>
+    <t>Gaiman Firmansyah</t>
+  </si>
+  <si>
+    <t>Gang Raya Ujungberung No. 5, Bitung, YO 40121</t>
+  </si>
+  <si>
+    <t>+62 (0156) 768 7326</t>
+  </si>
+  <si>
+    <t>19154146</t>
+  </si>
+  <si>
+    <t>Dwi Gunarto, S.Sos</t>
+  </si>
+  <si>
+    <t>Jalan Rumah Sakit No. 624, Binjai, NB 85500</t>
+  </si>
+  <si>
+    <t>087 324 3830</t>
+  </si>
+  <si>
+    <t>19389789</t>
+  </si>
+  <si>
+    <t>Novi Pranowo</t>
+  </si>
+  <si>
+    <t>Jl. Sukabumi No. 259, Banjar, DKI Jakarta 90695</t>
+  </si>
+  <si>
+    <t>(0698) 889-6448</t>
+  </si>
+  <si>
+    <t>19921524</t>
+  </si>
+  <si>
+    <t>dr. Ikhsan Prayoga</t>
+  </si>
+  <si>
+    <t>Jl. Ahmad Yani No. 20, Manado, YO 76155</t>
+  </si>
+  <si>
+    <t>+62 (085) 068 7211</t>
+  </si>
+  <si>
+    <t>19471458</t>
+  </si>
+  <si>
+    <t>Sarah Hardiansyah</t>
+  </si>
+  <si>
+    <t>Jl. Suniaraja No. 37, Pasuruan, SU 84445</t>
+  </si>
+  <si>
+    <t>+62 (0834) 158 5596</t>
+  </si>
+  <si>
+    <t>19782424</t>
+  </si>
+  <si>
+    <t>Dr. Violet Yulianti, S.E.</t>
+  </si>
+  <si>
+    <t>Gg. Bangka Raya No. 16, Kota Administrasi Jakarta Selatan, SS 18515</t>
+  </si>
+  <si>
+    <t>+62-47-119-2554</t>
+  </si>
+  <si>
+    <t>19336634</t>
+  </si>
+  <si>
+    <t>Galur Nugroho</t>
+  </si>
+  <si>
+    <t>Jalan Ciumbuleuit No. 6, Bontang, Kepulauan Bangka Belitung 79516</t>
+  </si>
+  <si>
+    <t>(053) 127-0275</t>
+  </si>
+  <si>
+    <t>19044318</t>
+  </si>
+  <si>
+    <t>Puji Hasanah</t>
+  </si>
+  <si>
+    <t>Jl. Asia Afrika No. 184, Balikpapan, NT 06663</t>
+  </si>
+  <si>
+    <t>(0840) 987 2712</t>
+  </si>
+  <si>
+    <t>19197734</t>
+  </si>
+  <si>
+    <t>Baktiono Marpaung</t>
+  </si>
+  <si>
+    <t>Jl. Sentot Alibasa No. 089, Sawahlunto, JT 37146</t>
+  </si>
+  <si>
+    <t>0871251781</t>
+  </si>
+  <si>
+    <t>19921852</t>
+  </si>
+  <si>
+    <t>drg. Sarah Wahyudin, S.Farm</t>
+  </si>
+  <si>
+    <t>Jl. Lembong No. 9, Sukabumi, Maluku Utara 62629</t>
+  </si>
+  <si>
+    <t>+62-55-922-4611</t>
+  </si>
+  <si>
+    <t>19317675</t>
+  </si>
+  <si>
+    <t>Oskar Winarno</t>
+  </si>
+  <si>
+    <t>Jalan Monginsidi No. 86, Bandung, JI 05190</t>
+  </si>
+  <si>
+    <t>+62 (60) 192 4093</t>
+  </si>
+  <si>
+    <t>19887692</t>
+  </si>
+  <si>
+    <t>Najwa Riyanti</t>
+  </si>
+  <si>
+    <t>Jl. Antapani Lama No. 79, Surakarta, Kalimantan Tengah 20957</t>
+  </si>
+  <si>
+    <t>+62-443-376-4836</t>
+  </si>
+  <si>
+    <t>19860587</t>
+  </si>
+  <si>
+    <t>Cut Mila Fujiati, S.Pt</t>
+  </si>
+  <si>
+    <t>Gang PHH. Mustofa No. 137, Manado, Riau 83194</t>
+  </si>
+  <si>
+    <t>+62 (024) 752 7335</t>
+  </si>
+  <si>
+    <t>19397376</t>
+  </si>
+  <si>
+    <t>T. Simon Megantara</t>
+  </si>
+  <si>
+    <t>Jalan Jayawijaya No. 06, Palu, DKI Jakarta 77666</t>
+  </si>
+  <si>
+    <t>(0873) 091-4561</t>
+  </si>
+  <si>
+    <t>19457526</t>
+  </si>
+  <si>
+    <t>Putri Januar</t>
+  </si>
+  <si>
+    <t>Gang Ciumbuleuit No. 4, Tangerang, NT 14535</t>
+  </si>
+  <si>
+    <t>+62-631-135-4516</t>
+  </si>
+  <si>
+    <t>19400127</t>
+  </si>
+  <si>
+    <t>Ir. Drajat Anggriawan, S.Sos</t>
+  </si>
+  <si>
+    <t>Jl. Peta No. 5, Tual, SN 13263</t>
+  </si>
+  <si>
+    <t>+62 (528) 777-8885</t>
+  </si>
+  <si>
+    <t>19481395</t>
+  </si>
+  <si>
+    <t>Dr. Garang Winarsih</t>
+  </si>
+  <si>
+    <t>Jalan Kebonjati No. 85, Tasikmalaya, Sulawesi Tengah 39987</t>
+  </si>
+  <si>
+    <t>+62-809-090-4002</t>
+  </si>
+  <si>
+    <t>19165984</t>
+  </si>
+  <si>
+    <t>Maida Nasyidah</t>
+  </si>
+  <si>
+    <t>Gang K.H. Wahid Hasyim No. 9, Tegal, Bengkulu 37103</t>
+  </si>
+  <si>
+    <t>(096) 574-1967</t>
+  </si>
+  <si>
+    <t>19970235</t>
+  </si>
+  <si>
+    <t>Ami Rahmawati</t>
+  </si>
+  <si>
+    <t>Gg. Cikutra Barat No. 847, Pematangsiantar, BB 20335</t>
+  </si>
+  <si>
+    <t>(052) 158-6673</t>
+  </si>
+  <si>
+    <t>19135296</t>
+  </si>
+  <si>
+    <t>Pangeran Saragih</t>
+  </si>
+  <si>
+    <t>Gang Raya Setiabudhi No. 85, Pontianak, Bengkulu 67263</t>
+  </si>
+  <si>
+    <t>+62-18-730-9578</t>
+  </si>
+  <si>
+    <t>19535053</t>
+  </si>
+  <si>
+    <t>Budi Palastri</t>
+  </si>
+  <si>
+    <t>Gg. Surapati No. 3, Parepare, Bengkulu 68184</t>
+  </si>
+  <si>
+    <t>+62 (030) 054-1055</t>
+  </si>
+  <si>
+    <t>19394206</t>
+  </si>
+  <si>
+    <t>Legawa Firgantoro</t>
+  </si>
+  <si>
+    <t>Jl. Jend. Sudirman No. 446, Tanjungbalai, BB 26177</t>
+  </si>
+  <si>
+    <t>(0281) 025 6417</t>
+  </si>
+  <si>
+    <t>19818969</t>
+  </si>
+  <si>
+    <t>Titi Winarsih</t>
+  </si>
+  <si>
+    <t>Gang Indragiri No. 88, Sukabumi, YO 64750</t>
+  </si>
+  <si>
+    <t>+62-27-381-8100</t>
+  </si>
+  <si>
+    <t>19335272</t>
+  </si>
+  <si>
+    <t>Salman Maheswara, M.Farm</t>
+  </si>
+  <si>
+    <t>Jalan Erlangga No. 14, Subulussalam, YO 05199</t>
+  </si>
+  <si>
+    <t>+62-0661-185-5886</t>
+  </si>
+  <si>
+    <t>19811064</t>
+  </si>
+  <si>
+    <t>Dariati Nurdiyanti</t>
+  </si>
+  <si>
+    <t>Gang Asia Afrika No. 6, Probolinggo, MA 17393</t>
+  </si>
+  <si>
+    <t>+62 (63) 674 9143</t>
+  </si>
+  <si>
+    <t>19434204</t>
+  </si>
+  <si>
+    <t>Sari Pranowo</t>
+  </si>
+  <si>
+    <t>Jl. Merdeka No. 66, Pariaman, SS 44360</t>
+  </si>
+  <si>
+    <t>+62 (0078) 789 7709</t>
+  </si>
+  <si>
+    <t>19880962</t>
+  </si>
+  <si>
+    <t>drg. Sarah Wacana, S.E.</t>
+  </si>
+  <si>
+    <t>Gg. Wonoayu No. 759, Banjar, SU 56377</t>
+  </si>
+  <si>
+    <t>084 138 1829</t>
+  </si>
+  <si>
+    <t>19321497</t>
+  </si>
+  <si>
+    <t>Dewi Nainggolan, S.I.Kom</t>
+  </si>
+  <si>
+    <t>Gang Sukabumi No. 8, Batam, Papua 39869</t>
+  </si>
+  <si>
+    <t>+62 (003) 826-4781</t>
+  </si>
+  <si>
+    <t>19066326</t>
+  </si>
+  <si>
+    <t>Gaduh Permata</t>
+  </si>
+  <si>
+    <t>Gg. PHH. Mustofa No. 9, Jambi, Nusa Tenggara Timur 28024</t>
+  </si>
+  <si>
+    <t>(028) 784-1743</t>
+  </si>
+  <si>
+    <t>19958868</t>
+  </si>
+  <si>
+    <t>Jatmiko Prasetya</t>
+  </si>
+  <si>
+    <t>Gg. Antapani Lama No. 14, Manado, Kalimantan Barat 25880</t>
+  </si>
+  <si>
+    <t>(093) 807 0009</t>
+  </si>
+  <si>
+    <t>19596212</t>
+  </si>
+  <si>
+    <t>Okto Hakim</t>
+  </si>
+  <si>
+    <t>Jl. Dipenogoro No. 90, Tomohon, MA 56992</t>
+  </si>
+  <si>
+    <t>+62-55-640-9997</t>
+  </si>
+  <si>
+    <t>19975464</t>
+  </si>
+  <si>
+    <t>Cut Salsabila Astuti</t>
+  </si>
+  <si>
+    <t>Gang Gegerkalong Hilir No. 4, Banda Aceh, KT 35843</t>
+  </si>
+  <si>
+    <t>081 302 0228</t>
+  </si>
+  <si>
+    <t>19832262</t>
+  </si>
+  <si>
+    <t>Cut Kamaria Mulyani, M.TI.</t>
+  </si>
+  <si>
+    <t>Gg. Abdul Muis No. 2, Kupang, SB 33418</t>
+  </si>
+  <si>
+    <t>+62-260-290-6068</t>
+  </si>
+  <si>
+    <t>19610572</t>
+  </si>
+  <si>
+    <t>Puti Vera Pradipta, M.Ak</t>
+  </si>
+  <si>
+    <t>Jalan PHH. Mustofa No. 631, Semarang, Aceh 14073</t>
+  </si>
+  <si>
+    <t>0800441183</t>
+  </si>
+  <si>
+    <t>19391112</t>
+  </si>
+  <si>
+    <t>dr. Eva Pratiwi, S.E.I</t>
+  </si>
+  <si>
+    <t>Jalan R.E Martadinata No. 5, Balikpapan, KI 85871</t>
+  </si>
+  <si>
+    <t>(0506) 778 1658</t>
+  </si>
+  <si>
+    <t>19427274</t>
+  </si>
+  <si>
+    <t>Dr. Salman Waluyo</t>
+  </si>
+  <si>
+    <t>Gg. Waringin No. 8, Banjarbaru, RI 98002</t>
+  </si>
+  <si>
+    <t>+62 (95) 019 6082</t>
+  </si>
+  <si>
+    <t>19799330</t>
+  </si>
+  <si>
+    <t>Cut Ella Pratiwi, S.Pd</t>
+  </si>
+  <si>
+    <t>Gang Cihampelas No. 21, Malang, Sulawesi Barat 24479</t>
+  </si>
+  <si>
+    <t>+62-012-223-0710</t>
+  </si>
+  <si>
+    <t>19815692</t>
+  </si>
+  <si>
+    <t>drg. Taufan Prastuti</t>
+  </si>
+  <si>
+    <t>Jl. Suniaraja No. 5, Kota Administrasi Jakarta Timur, Kalimantan Tengah 45405</t>
+  </si>
+  <si>
+    <t>0852858966</t>
+  </si>
+  <si>
+    <t>19552804</t>
+  </si>
+  <si>
+    <t>Hj. Ayu Oktaviani, M.TI.</t>
+  </si>
+  <si>
+    <t>Gg. Stasiun Wonokromo No. 40, Sungai Penuh, Sumatera Utara 60702</t>
+  </si>
+  <si>
+    <t>+62 (0219) 926 3587</t>
+  </si>
+  <si>
+    <t>19090106</t>
+  </si>
+  <si>
+    <t>Hairyanto Safitri, S.I.Kom</t>
+  </si>
+  <si>
+    <t>Jalan Ciumbuleuit No. 2, Sabang, Aceh 93865</t>
+  </si>
+  <si>
+    <t>+62-0780-848-5975</t>
+  </si>
+  <si>
+    <t>19602098</t>
+  </si>
+  <si>
+    <t>Najwa Budiman</t>
+  </si>
+  <si>
+    <t>Jalan Soekarno Hatta No. 5, Pasuruan, Papua 80326</t>
+  </si>
+  <si>
+    <t>+62 (0212) 431-5615</t>
+  </si>
+  <si>
+    <t>19982710</t>
+  </si>
+  <si>
+    <t>Gawati Mulyani, S.T.</t>
+  </si>
+  <si>
+    <t>Gang Veteran No. 0, Pematangsiantar, RI 37033</t>
+  </si>
+  <si>
+    <t>+62 (268) 910 9669</t>
+  </si>
+  <si>
+    <t>19937179</t>
+  </si>
+  <si>
+    <t>Dt. Galih Putra</t>
+  </si>
+  <si>
+    <t>Jalan Laswi No. 209, Singkawang, BE 58960</t>
+  </si>
+  <si>
+    <t>+62 (526) 394-9028</t>
+  </si>
+  <si>
+    <t>19032500</t>
+  </si>
+  <si>
+    <t>Karsa Mustofa, S.Pt</t>
+  </si>
+  <si>
+    <t>Gg. Pelajar Pejuang No. 148, Palembang, PB 00746</t>
+  </si>
+  <si>
+    <t>+62 (208) 365 3047</t>
+  </si>
+  <si>
+    <t>19980703</t>
+  </si>
+  <si>
+    <t>Raina Simanjuntak</t>
+  </si>
+  <si>
+    <t>Jalan Kutai No. 71, Padang Sidempuan, Kepulauan Riau 16884</t>
+  </si>
+  <si>
+    <t>+62 (065) 151 2273</t>
+  </si>
+  <si>
+    <t>19729729</t>
+  </si>
+  <si>
+    <t>Cornelia Thamrin</t>
+  </si>
+  <si>
+    <t>Gg. Yos Sudarso No. 858, Cimahi, Kepulauan Riau 32920</t>
+  </si>
+  <si>
+    <t>(058) 468 9981</t>
+  </si>
+  <si>
+    <t>19901282</t>
+  </si>
+  <si>
+    <t>Farhunnisa Maryati, S.E.I</t>
+  </si>
+  <si>
+    <t>Gg. Pacuan Kuda No. 56, Meulaboh, Kalimantan Utara 87151</t>
+  </si>
+  <si>
+    <t>+62 (0149) 757-8855</t>
+  </si>
+  <si>
+    <t>19105804</t>
+  </si>
+  <si>
+    <t>Dr. Maya Mardhiyah, S.E.I</t>
+  </si>
+  <si>
+    <t>Jalan Erlangga No. 457, Denpasar, Jawa Tengah 13137</t>
+  </si>
+  <si>
+    <t>+62 (239) 405-1995</t>
+  </si>
+  <si>
+    <t>19711186</t>
+  </si>
+  <si>
+    <t>Hj. Cinthia Rajasa, S.Pd</t>
+  </si>
+  <si>
+    <t>Gg. Cihampelas No. 17, Prabumulih, SU 73650</t>
+  </si>
+  <si>
+    <t>+62-074-750-2538</t>
+  </si>
+  <si>
+    <t>19049364</t>
+  </si>
+  <si>
+    <t>Wardaya Sitompul</t>
+  </si>
+  <si>
+    <t>Jalan Gardujati No. 77, Palangkaraya, BB 95504</t>
+  </si>
+  <si>
+    <t>+62 (0229) 279 5330</t>
+  </si>
+  <si>
+    <t>19768660</t>
+  </si>
+  <si>
+    <t>Tira Hastuti</t>
+  </si>
+  <si>
+    <t>Jalan Ronggowarsito No. 057, Bima, SS 11268</t>
+  </si>
+  <si>
+    <t>+62 (014) 631 3177</t>
+  </si>
+  <si>
+    <t>19359909</t>
+  </si>
+  <si>
+    <t>Agnes Sinaga</t>
+  </si>
+  <si>
+    <t>Gg. Rajiman No. 122, Bekasi, Kalimantan Tengah 57652</t>
+  </si>
+  <si>
+    <t>+62-73-165-5002</t>
+  </si>
+  <si>
+    <t>19366145</t>
+  </si>
+  <si>
+    <t>Atma Tamba</t>
+  </si>
+  <si>
+    <t>Gg. Raya Setiabudhi No. 9, Prabumulih, DI Yogyakarta 36718</t>
+  </si>
+  <si>
+    <t>+62 (65) 589 0488</t>
+  </si>
+  <si>
+    <t>19599332</t>
+  </si>
+  <si>
+    <t>Kuncara Waluyo</t>
+  </si>
+  <si>
+    <t>Gg. Jamika No. 58, Tidore Kepulauan, KB 01003</t>
+  </si>
+  <si>
+    <t>+62-488-561-1606</t>
+  </si>
+  <si>
+    <t>19641834</t>
+  </si>
+  <si>
+    <t>H. Jayeng Lazuardi, S.Psi</t>
+  </si>
+  <si>
+    <t>Jl. Merdeka No. 43, Makassar, Riau 45501</t>
+  </si>
+  <si>
+    <t>(050) 743 2125</t>
+  </si>
+  <si>
+    <t>19476857</t>
+  </si>
+  <si>
+    <t>Bakiadi Prastuti</t>
+  </si>
+  <si>
+    <t>Jl. Tubagus Ismail No. 7, Madiun, Sumatera Selatan 09614</t>
+  </si>
+  <si>
+    <t>0868841331</t>
+  </si>
+  <si>
+    <t>19386141</t>
+  </si>
+  <si>
+    <t>Cindy Winarno</t>
+  </si>
+  <si>
+    <t>Jalan Asia Afrika No. 403, Tebingtinggi, Bengkulu 25638</t>
+  </si>
+  <si>
+    <t>0858195645</t>
+  </si>
+  <si>
+    <t>19103176</t>
+  </si>
+  <si>
+    <t>R. Calista Habibi, S.Pt</t>
+  </si>
+  <si>
+    <t>Jl. Astana Anyar No. 170, Tebingtinggi, Jambi 78098</t>
+  </si>
+  <si>
+    <t>+62 (99) 286-1466</t>
+  </si>
+  <si>
+    <t>19074128</t>
+  </si>
+  <si>
+    <t>R. Lalita Mandasari, S.Pt</t>
+  </si>
+  <si>
+    <t>Gang H.J Maemunah No. 6, Sibolga, Jawa Timur 71728</t>
+  </si>
+  <si>
+    <t>(0783) 774 5946</t>
+  </si>
+  <si>
+    <t>19006601</t>
+  </si>
+  <si>
+    <t>H. Gamblang Wijaya, S.Psi</t>
+  </si>
+  <si>
+    <t>Jalan Cempaka No. 973, Tarakan, Jawa Timur 11673</t>
+  </si>
+  <si>
+    <t>+62 (063) 122-0161</t>
+  </si>
+  <si>
+    <t>19033822</t>
+  </si>
+  <si>
+    <t>H. Darmanto Januar, S.Farm</t>
+  </si>
+  <si>
+    <t>Jalan Pasir Koja No. 7, Lhokseumawe, Kalimantan Barat 80076</t>
+  </si>
+  <si>
+    <t>(0188) 019 6677</t>
+  </si>
+  <si>
+    <t>19282407</t>
+  </si>
+  <si>
+    <t>Latika Prasetyo</t>
+  </si>
+  <si>
+    <t>Gg. Jend. A. Yani No. 798, Sabang, Jawa Timur 84196</t>
+  </si>
+  <si>
+    <t>+62 (03) 863 4703</t>
+  </si>
+  <si>
+    <t>19682871</t>
+  </si>
+  <si>
+    <t>Nalar Kuswoyo</t>
+  </si>
+  <si>
+    <t>Gg. M.T Haryono No. 385, Kotamobagu, Lampung 63634</t>
+  </si>
+  <si>
+    <t>(0867) 427-6404</t>
+  </si>
+  <si>
+    <t>19119673</t>
+  </si>
+  <si>
+    <t>Febi Prayoga</t>
+  </si>
+  <si>
+    <t>Gang Raya Setiabudhi No. 425, Pekalongan, Bali 76465</t>
+  </si>
+  <si>
+    <t>+62-97-461-5900</t>
+  </si>
+  <si>
+    <t>19897605</t>
+  </si>
+  <si>
+    <t>KH. Lanang Laksita, S.Pt</t>
+  </si>
+  <si>
+    <t>Jl. Veteran No. 124, Prabumulih, Sulawesi Barat 76496</t>
+  </si>
+  <si>
+    <t>+62 (0088) 979 0962</t>
+  </si>
+  <si>
+    <t>19447701</t>
+  </si>
+  <si>
+    <t>Wadi Kusumo</t>
+  </si>
+  <si>
+    <t>Gang Sukajadi No. 112, Cimahi, KT 44388</t>
+  </si>
+  <si>
+    <t>+62 (0105) 199-4976</t>
+  </si>
+  <si>
+    <t>19914204</t>
+  </si>
+  <si>
+    <t>Ophelia Wulandari, S.Gz</t>
+  </si>
+  <si>
+    <t>Gang Rajiman No. 4, Denpasar, Jawa Barat 06445</t>
+  </si>
+  <si>
+    <t>+62 (041) 429 3483</t>
+  </si>
+  <si>
+    <t>19841320</t>
+  </si>
+  <si>
+    <t>Balidin Winarno, M.Kom.</t>
+  </si>
+  <si>
+    <t>Jl. Dipenogoro No. 710, Kediri, Kalimantan Selatan 26260</t>
+  </si>
+  <si>
+    <t>+62 (0173) 682-0706</t>
+  </si>
+  <si>
+    <t>19456052</t>
+  </si>
+  <si>
+    <t>dr. Dipa Simbolon, M.Kom.</t>
+  </si>
+  <si>
+    <t>Gang Cikutra Timur No. 89, Mataram, Jambi 15047</t>
+  </si>
+  <si>
+    <t>(092) 355 5148</t>
+  </si>
+  <si>
+    <t>19468870</t>
+  </si>
+  <si>
+    <t>Cut Victoria Maryadi, M.M.</t>
+  </si>
+  <si>
+    <t>Gang Gedebage Selatan No. 440, Bontang, SR 83177</t>
+  </si>
+  <si>
+    <t>+62 (004) 770 1455</t>
+  </si>
+  <si>
+    <t>19306142</t>
+  </si>
+  <si>
+    <t>Cut Calista Hastuti</t>
+  </si>
+  <si>
+    <t>Gang Tebet Barat Dalam No. 8, Sabang, Papua 02524</t>
+  </si>
+  <si>
+    <t>+62 (071) 211-6850</t>
+  </si>
+  <si>
+    <t>19962090</t>
+  </si>
+  <si>
+    <t>Eli Najmudin, S.Pt</t>
+  </si>
+  <si>
+    <t>Gang Sentot Alibasa No. 122, Palembang, Sulawesi Tengah 26925</t>
+  </si>
+  <si>
+    <t>+62-0304-956-7035</t>
+  </si>
+  <si>
+    <t>19016477</t>
+  </si>
+  <si>
+    <t>Malik Widiastuti</t>
+  </si>
+  <si>
+    <t>Jl. R.E Martadinata No. 4, Palu, PA 30690</t>
+  </si>
+  <si>
+    <t>+62 (058) 920-8473</t>
+  </si>
+  <si>
+    <t>19501741</t>
+  </si>
+  <si>
+    <t>Cawisadi Santoso</t>
+  </si>
+  <si>
+    <t>Gang M.T Haryono No. 612, Kotamobagu, Kalimantan Selatan 76020</t>
+  </si>
+  <si>
+    <t>(0728) 526-8584</t>
+  </si>
+  <si>
+    <t>19218508</t>
+  </si>
+  <si>
+    <t>Farah Saragih</t>
+  </si>
+  <si>
+    <t>Gang Moch. Toha No. 046, Tangerang Selatan, SS 97390</t>
+  </si>
+  <si>
+    <t>+62 (068) 748-4855</t>
+  </si>
+  <si>
+    <t>19186856</t>
+  </si>
+  <si>
+    <t>R. Ratih Siregar</t>
+  </si>
+  <si>
+    <t>Gg. Rajiman No. 1, Depok, SU 61891</t>
+  </si>
+  <si>
+    <t>(0944) 613-4210</t>
   </si>
 </sst>
 </file>
@@ -107,9 +1310,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28F0C26-52C3-4B30-824C-C017CAFBEA4C}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,25 +1669,2325 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>12345</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>2341720257</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>89678796560</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G51" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G52" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G53" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G55" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G56" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G58" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G59" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G61" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G62" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G64" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G65" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G66" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G67" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G68" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G69" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G70" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G74" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G75" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G76" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G77" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G82" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G83" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G84" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G85" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G86" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G87" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G88" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G92" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G93" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G94" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G95" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G96" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G97" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G98" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G99" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G100" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G101" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G102" s="2">
         <v>2</v>
       </c>
     </row>

--- a/public/template_mahasiswa.xlsx
+++ b/public/template_mahasiswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\PBL4_Sem4\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB7C6B3-0A58-4D87-8D28-E390230FB853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9E2FB1-64A4-4D94-8F30-AAE4485EC1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0EAF9244-301C-410D-B4A0-AE62B17C945B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="208">
   <si>
     <t>username</t>
   </si>
@@ -643,6 +643,21 @@
   </si>
   <si>
     <t>+62-0661-185-5886</t>
+  </si>
+  <si>
+    <t>angkatan</t>
+  </si>
+  <si>
+    <t>jenis_kelamin</t>
+  </si>
+  <si>
+    <t>ipk</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -686,9 +701,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1003,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28F0C26-52C3-4B30-824C-C017CAFBEA4C}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="E36" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1018,9 +1034,10 @@
     <col min="5" max="5" width="20.7265625" customWidth="1"/>
     <col min="6" max="6" width="18.1796875" customWidth="1"/>
     <col min="7" max="7" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,8 +1059,17 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1065,8 +1091,17 @@
       <c r="G2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>2023</v>
+      </c>
+      <c r="I2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1088,8 +1123,17 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>2023</v>
+      </c>
+      <c r="I3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1111,8 +1155,17 @@
       <c r="G4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>2023</v>
+      </c>
+      <c r="I4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1134,8 +1187,17 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>2023</v>
+      </c>
+      <c r="I5" t="s">
+        <v>206</v>
+      </c>
+      <c r="J5">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1157,8 +1219,17 @@
       <c r="G6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>2023</v>
+      </c>
+      <c r="I6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J6">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1180,8 +1251,17 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>2023</v>
+      </c>
+      <c r="I7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1203,8 +1283,17 @@
       <c r="G8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>2023</v>
+      </c>
+      <c r="I8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1226,8 +1315,17 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>2023</v>
+      </c>
+      <c r="I9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1249,8 +1347,17 @@
       <c r="G10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>2023</v>
+      </c>
+      <c r="I10" t="s">
+        <v>206</v>
+      </c>
+      <c r="J10">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1272,8 +1379,17 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>2023</v>
+      </c>
+      <c r="I11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1295,8 +1411,17 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>2023</v>
+      </c>
+      <c r="I12" t="s">
+        <v>206</v>
+      </c>
+      <c r="J12">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1318,8 +1443,17 @@
       <c r="G13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>2023</v>
+      </c>
+      <c r="I13" t="s">
+        <v>206</v>
+      </c>
+      <c r="J13">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -1341,8 +1475,17 @@
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>2023</v>
+      </c>
+      <c r="I14" t="s">
+        <v>207</v>
+      </c>
+      <c r="J14">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1364,8 +1507,17 @@
       <c r="G15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <v>2023</v>
+      </c>
+      <c r="I15" t="s">
+        <v>207</v>
+      </c>
+      <c r="J15">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1387,8 +1539,17 @@
       <c r="G16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>2023</v>
+      </c>
+      <c r="I16" t="s">
+        <v>207</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -1410,8 +1571,17 @@
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>2023</v>
+      </c>
+      <c r="I17" t="s">
+        <v>207</v>
+      </c>
+      <c r="J17">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -1433,8 +1603,17 @@
       <c r="G18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>2023</v>
+      </c>
+      <c r="I18" t="s">
+        <v>207</v>
+      </c>
+      <c r="J18">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -1456,8 +1635,17 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19">
+        <v>2023</v>
+      </c>
+      <c r="I19" t="s">
+        <v>207</v>
+      </c>
+      <c r="J19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -1479,8 +1667,17 @@
       <c r="G20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20">
+        <v>2023</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -1502,8 +1699,17 @@
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <v>2022</v>
+      </c>
+      <c r="I21" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -1525,8 +1731,17 @@
       <c r="G22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>2022</v>
+      </c>
+      <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -1548,8 +1763,17 @@
       <c r="G23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <v>2022</v>
+      </c>
+      <c r="I23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -1571,8 +1795,17 @@
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24">
+        <v>2022</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -1594,8 +1827,17 @@
       <c r="G25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25">
+        <v>2022</v>
+      </c>
+      <c r="I25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -1617,8 +1859,17 @@
       <c r="G26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26">
+        <v>2022</v>
+      </c>
+      <c r="I26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J26">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -1640,8 +1891,17 @@
       <c r="G27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27">
+        <v>2022</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -1663,8 +1923,17 @@
       <c r="G28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28">
+        <v>2022</v>
+      </c>
+      <c r="I28" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -1686,8 +1955,17 @@
       <c r="G29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29">
+        <v>2022</v>
+      </c>
+      <c r="I29" t="s">
+        <v>207</v>
+      </c>
+      <c r="J29">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -1709,8 +1987,17 @@
       <c r="G30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H30">
+        <v>2022</v>
+      </c>
+      <c r="I30" t="s">
+        <v>207</v>
+      </c>
+      <c r="J30">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -1732,8 +2019,17 @@
       <c r="G31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31">
+        <v>2022</v>
+      </c>
+      <c r="I31" t="s">
+        <v>207</v>
+      </c>
+      <c r="J31" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>127</v>
       </c>
@@ -1755,8 +2051,17 @@
       <c r="G32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32">
+        <v>2022</v>
+      </c>
+      <c r="I32" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -1778,8 +2083,17 @@
       <c r="G33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33">
+        <v>2022</v>
+      </c>
+      <c r="I33" t="s">
+        <v>207</v>
+      </c>
+      <c r="J33">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>135</v>
       </c>
@@ -1801,8 +2115,17 @@
       <c r="G34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34">
+        <v>2022</v>
+      </c>
+      <c r="I34" t="s">
+        <v>207</v>
+      </c>
+      <c r="J34">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -1824,8 +2147,17 @@
       <c r="G35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35">
+        <v>2022</v>
+      </c>
+      <c r="I35" t="s">
+        <v>207</v>
+      </c>
+      <c r="J35">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -1847,8 +2179,17 @@
       <c r="G36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H36">
+        <v>2022</v>
+      </c>
+      <c r="I36" t="s">
+        <v>207</v>
+      </c>
+      <c r="J36">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -1870,8 +2211,17 @@
       <c r="G37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H37">
+        <v>2022</v>
+      </c>
+      <c r="I37" t="s">
+        <v>206</v>
+      </c>
+      <c r="J37">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -1893,8 +2243,17 @@
       <c r="G38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38">
+        <v>2022</v>
+      </c>
+      <c r="I38" t="s">
+        <v>206</v>
+      </c>
+      <c r="J38">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>155</v>
       </c>
@@ -1916,8 +2275,17 @@
       <c r="G39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H39">
+        <v>2022</v>
+      </c>
+      <c r="I39" t="s">
+        <v>206</v>
+      </c>
+      <c r="J39">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>159</v>
       </c>
@@ -1939,8 +2307,17 @@
       <c r="G40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H40">
+        <v>2022</v>
+      </c>
+      <c r="I40" t="s">
+        <v>206</v>
+      </c>
+      <c r="J40" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>163</v>
       </c>
@@ -1962,8 +2339,17 @@
       <c r="G41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H41">
+        <v>2024</v>
+      </c>
+      <c r="I41" t="s">
+        <v>206</v>
+      </c>
+      <c r="J41">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -1985,8 +2371,17 @@
       <c r="G42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H42">
+        <v>2024</v>
+      </c>
+      <c r="I42" t="s">
+        <v>206</v>
+      </c>
+      <c r="J42">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>171</v>
       </c>
@@ -2008,8 +2403,17 @@
       <c r="G43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H43">
+        <v>2024</v>
+      </c>
+      <c r="I43" t="s">
+        <v>206</v>
+      </c>
+      <c r="J43" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>175</v>
       </c>
@@ -2031,8 +2435,17 @@
       <c r="G44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H44">
+        <v>2024</v>
+      </c>
+      <c r="I44" t="s">
+        <v>206</v>
+      </c>
+      <c r="J44">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>179</v>
       </c>
@@ -2054,8 +2467,17 @@
       <c r="G45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H45">
+        <v>2024</v>
+      </c>
+      <c r="I45" t="s">
+        <v>206</v>
+      </c>
+      <c r="J45">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>183</v>
       </c>
@@ -2077,8 +2499,17 @@
       <c r="G46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H46">
+        <v>2024</v>
+      </c>
+      <c r="I46" t="s">
+        <v>206</v>
+      </c>
+      <c r="J46">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>187</v>
       </c>
@@ -2100,8 +2531,17 @@
       <c r="G47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H47">
+        <v>2024</v>
+      </c>
+      <c r="I47" t="s">
+        <v>206</v>
+      </c>
+      <c r="J47">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>191</v>
       </c>
@@ -2123,8 +2563,17 @@
       <c r="G48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H48">
+        <v>2024</v>
+      </c>
+      <c r="I48" t="s">
+        <v>206</v>
+      </c>
+      <c r="J48">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>195</v>
       </c>
@@ -2146,8 +2595,17 @@
       <c r="G49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H49">
+        <v>2024</v>
+      </c>
+      <c r="I49" t="s">
+        <v>206</v>
+      </c>
+      <c r="J49">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>199</v>
       </c>
@@ -2168,6 +2626,15 @@
       </c>
       <c r="G50">
         <v>1</v>
+      </c>
+      <c r="H50">
+        <v>2024</v>
+      </c>
+      <c r="I50" t="s">
+        <v>206</v>
+      </c>
+      <c r="J50">
+        <v>3.89</v>
       </c>
     </row>
   </sheetData>
